--- a/biology/Mycologie/Hubert_Jacob_Ludwig/Hubert_Jacob_Ludwig.xlsx
+++ b/biology/Mycologie/Hubert_Jacob_Ludwig/Hubert_Jacob_Ludwig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hubert Jacob Ludwig, né le 22 mars 1852 à Trèves et mort le 17 novembre 1913 à Bonn, est un zoologiste, mycologue, chercheur, professeur et conservateur de musée prussien.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce spécialiste des échinodermes travaille sur la faune de la Méditerranée. Il travaille d’abord à l’université de Göttingen, puis en 1878 il part à Brême, puis en 1881 à Gießen.
 En 1887, il devint professeur de zoologie à l'université de Bonn. Il fut le premier à engager comme assistante, une femme, Maria von Linden, qui devint par la suite professeure dans cette université. Hubert Ludwig fut également directeur du Musée zoologique de cette même université.
@@ -544,7 +558,9 @@
           <t>Hommage</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs taxons d'espèces d'Échinodermes lui ont été dédiées, comme :
 Anapta ludwigi (nl) Britten, 1907
